--- a/project/excel/submission_schema.xlsx
+++ b/project/excel/submission_schema.xlsx
@@ -10,21 +10,20 @@
     <sheet name="AirInterface" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="BiofilmInterface" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="BuiltEnvInterface" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="DhInterface" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="EmslInterface" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="HcrCoresInterface" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="HcrFluidsSwabsInterface" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="HostAssociatedInterface" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="JgiMgInterface" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="JgiMtInterface" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="MiscEnvsInterface" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="PlantAssociatedInterface" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="SampleData" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="SedimentInterface" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="SoilInterface" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="WastewaterSludgeInterface" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="WaterInterface" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="DhMultiviewCommonColumns" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="EmslInterface" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="HcrCoresInterface" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="HcrFluidsSwabsInterface" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="HostAssociatedInterface" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="JgiMgInterface" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="JgiMtInterface" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MiscEnvsInterface" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="PlantAssociatedInterface" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SampleData" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="SedimentInterface" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SoilInterface" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="WastewaterSludgeInterface" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="WaterInterface" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="DhMultiviewCommonColumns" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,141 +706,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dnase_rna</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>proposal_rna</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>rna_absorb1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>rna_absorb2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>rna_collect_site</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>rna_concentration</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>rna_cont_type</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>rna_cont_well</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>rna_container_id</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>rna_isolate_meth</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>rna_organisms</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>rna_project_contact</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>rna_samp_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>rna_sample_format</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>rna_sample_name</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>rna_seq_project</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>rna_seq_project_name</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>rna_seq_project_pi</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>rna_volume</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>analysis_type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"no,yes"</formula1>
-    </dataValidation>
-    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"plate,tube"</formula1>
-    </dataValidation>
-    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"10 mM Tris-HCl,DNAStable,Ethanol,Low EDTA TE,MDA reaction buffer,PBS,Pellet,RNAStable,TE,Water"</formula1>
-    </dataValidation>
-    <dataValidation sqref="T2:T1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"metabolomics,metagenomics,metaproteomics,metatranscriptomics"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:BL1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1188,7 +1052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1705,7 +1569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1786,7 +1650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2279,7 +2143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2907,7 +2771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3249,7 +3113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3804,7 +3668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5434,24 +5298,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5510,7 +5356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6087,7 +5933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6680,7 +6526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7057,6 +6903,141 @@
       <formula1>"dissemination,growth and reproduction,infection,inoculation,penetration,other"</formula1>
     </dataValidation>
     <dataValidation sqref="BN2:BN1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"metabolomics,metagenomics,metaproteomics,metatranscriptomics"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dna_absorb1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dna_absorb2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dna_collect_site</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dna_concentration</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>dna_cont_type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dna_cont_well</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dna_container_id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>dna_dnase</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>dna_isolate_meth</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>dna_organisms</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dna_project_contact</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dna_samp_id</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>dna_sample_format</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>dna_sample_name</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>dna_seq_project</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>dna_seq_project_name</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>dna_seq_project_pi</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>dna_volume</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>proposal_dna</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>analysis_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"plate,symbiotic"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"no,tube"</formula1>
+    </dataValidation>
+    <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"10 mM Tris-HCl,DNAStable,Ethanol,Low EDTA TE,MDA reaction buffer,PBS,Pellet,RNAStable,TE,Water,yes"</formula1>
+    </dataValidation>
+    <dataValidation sqref="T2:T1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"metabolomics,metagenomics,metaproteomics,metatranscriptomics"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7081,97 +7062,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>dna_absorb1</t>
+          <t>dnase_rna</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>dna_absorb2</t>
+          <t>proposal_rna</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>dna_collect_site</t>
+          <t>rna_absorb1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>dna_concentration</t>
+          <t>rna_absorb2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>dna_cont_type</t>
+          <t>rna_collect_site</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>dna_cont_well</t>
+          <t>rna_concentration</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>dna_container_id</t>
+          <t>rna_cont_type</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>dna_dnase</t>
+          <t>rna_cont_well</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>dna_isolate_meth</t>
+          <t>rna_container_id</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>dna_organisms</t>
+          <t>rna_isolate_meth</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>dna_project_contact</t>
+          <t>rna_organisms</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>dna_samp_id</t>
+          <t>rna_project_contact</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>dna_sample_format</t>
+          <t>rna_samp_id</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>dna_sample_name</t>
+          <t>rna_sample_format</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>dna_seq_project</t>
+          <t>rna_sample_name</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>dna_seq_project_name</t>
+          <t>rna_seq_project</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>dna_seq_project_pi</t>
+          <t>rna_seq_project_name</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>dna_volume</t>
+          <t>rna_seq_project_pi</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>proposal_dna</t>
+          <t>rna_volume</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -7182,14 +7163,14 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"plate,symbiotic"</formula1>
-    </dataValidation>
-    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"no,tube"</formula1>
-    </dataValidation>
-    <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"10 mM Tris-HCl,DNAStable,Ethanol,Low EDTA TE,MDA reaction buffer,PBS,Pellet,RNAStable,TE,Water,yes"</formula1>
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"no,yes"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"plate,tube"</formula1>
+    </dataValidation>
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"10 mM Tris-HCl,DNAStable,Ethanol,Low EDTA TE,MDA reaction buffer,PBS,Pellet,RNAStable,TE,Water"</formula1>
     </dataValidation>
     <dataValidation sqref="T2:T1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"metabolomics,metagenomics,metaproteomics,metatranscriptomics"</formula1>
